--- a/data/trans_bre/P23_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>-44,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>-36,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,01%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 8,7</t>
+          <t>-18,12; 5,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 10,25</t>
+          <t>-17,85; 7,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 11,08</t>
+          <t>-16,85; 7,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,89; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-82,0; 627,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-85,39%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-87,11%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-78,29%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,08</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 1,13</t>
+          <t>-45,09; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,61</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,33; 2,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,95%</t>
+          <t>-8,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>-9,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>-43,35%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-54,78%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-78,73%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 2,59</t>
+          <t>-8,81; 6,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,86</t>
+          <t>-10,26; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 4,86</t>
+          <t>-17,07; 2,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-81,24; 81,66</t>
+          <t>-19,21; -0,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,55; 393,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-77,29; 225,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 58,72</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>132,49%</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>538,8%</t>
+          <t>152,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>192,86%</t>
+          <t>412,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>512,92%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135,2%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 8,65</t>
+          <t>-1,22; 12,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,6</t>
+          <t>3,9; 19,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,62</t>
+          <t>0,99; 12,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 982,71</t>
+          <t>-1,4; 13,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,38; —</t>
+          <t>-48,83; 1030,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 1100,07</t>
+          <t>5,86; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-31,53; 708,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>-33,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>176,28%</t>
+          <t>-30,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>106,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>399,05%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,29</t>
+          <t>-9,23; 6,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 9,11</t>
+          <t>-24,5; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 13,7</t>
+          <t>-3,5; 15,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 278,58</t>
+          <t>5,74; 32,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,04; 516,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 833,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 2074,78</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>149,09%</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>389,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>-26,13%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>109,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>171,35%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 20,82</t>
+          <t>-0,25; 21,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 9,03</t>
+          <t>-10,46; 3,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 9,07</t>
+          <t>-6,66; 13,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 903,12</t>
+          <t>-3,55; 28,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,61; 456,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,24; 459,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-65,34; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>-20,54%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>50,1%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,34</t>
+          <t>-0,96; 5,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,29</t>
+          <t>-10,15; 2,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,76</t>
+          <t>-1,84; 5,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 119,53</t>
+          <t>-10,15; 5,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 137,03</t>
+          <t>-19,74; 229,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 269,72</t>
+          <t>-70,3; 72,47</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 215,77</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-61,77; 88,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-44,14%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-36,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-4,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.87634349968702</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.269677428296299</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6237082880883156</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-5.608914380000048</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.7506189907120751</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2785216804421138</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1310116968940603</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,12; 5,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,85; 7,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 7,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,89; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.676527595701773</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.03955092670461</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.50414719598266</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.64749635132625</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.00993392345173</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.595683786689786</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.61018115454575</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-12,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-87,11%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-78,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-45,09; 1,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-51,33; 2,09</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.715110652206902</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.49079837877909</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.286220877550666</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-13.95816419485493</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.8686347746212165</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.7950570786608966</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-43,35%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-54,78%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-78,73%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-40.83792849285889</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-51.95418128447135</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,81; 6,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 3,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,07; 2,42</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; -0,26</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-77,55; 393,73</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 58,72</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.766392766478518</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.457048250461911</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.33487376769739</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.941794438686948</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +799,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>152,13%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>412,27%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>512,92%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>135,2%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.07476741041250179</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.71211229510112</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.124370424822231</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.958939864777998</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.01174123452639741</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3283953083337525</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4978849112445541</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7753144324157938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 12,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 19,15</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 12,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 13,85</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-48,83; 1030,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,86; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,53; 708,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.32127797383262</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.869672455368631</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.36381165193686</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-20.2691663555707</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7853447597240901</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.509614466150619</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.064437582392376</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.347722116671945</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.1129611898558688</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.918371291333456</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.8703583354120492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,84</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-33,86%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-30,07%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>106,58%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>399,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; 6,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-24,5; 7,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 15,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 32,17</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>19,44; 2074,78</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.985801861997651</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.607847857138</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.958499355998402</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.68814102099217</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.889505531469128</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.591379627437303</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>5.622457162990028</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.449638370501766</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>389,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-26,13%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>109,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>171,35%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4669081565488077</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3176705736085963</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.9852381496203442</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9450451657865103</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3808640070109389</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3993903447327242</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.2900150893480822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 21,34</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 3,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 13,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 28,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-65,34; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.39165603342587</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.35484348801624</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.03499979181926</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.03915005800691</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>12.00423701177538</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>7.578500688961948</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +985,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-20,54%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>50,1%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.326575622929633</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.934891283099245</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.954132957149024</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>16.85968495584714</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.2373978777541736</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.1983408501223735</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.375326162080005</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>3.901896567872726</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 5,26</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 2,76</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 5,03</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 5,12</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-19,74; 229,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-70,3; 72,47</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-37,41; 215,77</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-61,77; 88,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.828161078116278</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.90038177136519</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.700170212143185</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>5.711460467130996</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>0.1473170079879568</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.090065535177878</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.779468824405219</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>16.80942896780693</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>31.0215479004548</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>20.15165003442792</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>9.188295687838826</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.8206899418549497</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.194017106034939</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>15.11365283549469</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>4.140272912158543</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.3139423511815981</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.963461686997685</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>2.133586100269181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-0.05238462806669483</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.59132336872758</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-6.868872034611504</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5538649284773211</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-0.5504369277772183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>21.33044862006519</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.541022423368024</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>12.32021088298143</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>32.10879228144699</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.120306679018032</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.8822657002401812</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.103819226707136</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4266864440147469</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.888826244857823</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.122930239291982</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.5618359463124225</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.04701735625025049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.2632750164612306</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.190617159586893</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.859090457577612</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-9.842915351467099</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>7.924084173100939e-05</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6579123791155267</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.3640484498033015</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.6148129737681783</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.928555720816671</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.340523382091722</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.321358398475755</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>5.503814238405582</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>3.040203256047119</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.8804378495805988</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.348272298573337</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.9406028315098931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1257,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
